--- a/corpus/weights.xlsx
+++ b/corpus/weights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rabraham5/Documents/Github/keygen-ronalabraham/corpus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902BC0D1-A7D0-CA46-9128-5D30037FEC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFCA1B1-C1EA-664C-80D3-9B5859DA454B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8300" windowWidth="28800" windowHeight="20500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="29300" windowWidth="33600" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base Penalty" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Old--Same Finger + Long Jump'!$A$2:$I$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2840,8 +2839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4715C5BF-7BAB-314B-95FF-5EF7930FFEFC}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2976,11 +2975,11 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:P16" si="0">V2+W2</f>
+        <f>V2+W2</f>
         <v>3</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q16" si="1">T2+U2</f>
+        <f>T2+U2</f>
         <v>10</v>
       </c>
       <c r="R2">
@@ -3040,11 +3039,11 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <f t="shared" si="0"/>
+        <f>V3+W3</f>
         <v>2</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="1"/>
+        <f>T3+U3</f>
         <v>10</v>
       </c>
       <c r="R3">
@@ -3074,11 +3073,11 @@
         <v>1</v>
       </c>
       <c r="P4">
-        <f t="shared" si="0"/>
+        <f>V4+W4</f>
         <v>7</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="1"/>
+        <f>T4+U4</f>
         <v>10</v>
       </c>
       <c r="R4">
@@ -3108,11 +3107,11 @@
         <v>3</v>
       </c>
       <c r="P5">
-        <f t="shared" si="0"/>
+        <f>V5+W5</f>
         <v>8</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="1"/>
+        <f>T5+U5</f>
         <v>10</v>
       </c>
       <c r="R5">
@@ -3136,24 +3135,24 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="N6" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P6">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>V6+W6</f>
+        <v>5</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="1"/>
+        <f>T6+U6</f>
         <v>5</v>
       </c>
       <c r="R6">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T6">
         <v>5</v>
@@ -3162,32 +3161,35 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W6">
         <v>0</v>
+      </c>
+      <c r="X6" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="N7" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <f>V7+W7</f>
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <f>T7+U7</f>
         <v>5</v>
       </c>
-      <c r="P7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
       <c r="R7">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="S7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T7">
         <v>5</v>
@@ -3196,13 +3198,10 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W7">
         <v>0</v>
-      </c>
-      <c r="X7" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="Y7" t="s">
         <v>156</v>
@@ -3216,11 +3215,11 @@
         <v>6</v>
       </c>
       <c r="P8">
-        <f t="shared" si="0"/>
+        <f>V8+W8</f>
         <v>14</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="1"/>
+        <f>T8+U8</f>
         <v>20</v>
       </c>
       <c r="R8">
@@ -3250,11 +3249,11 @@
         <v>7</v>
       </c>
       <c r="P9">
-        <f t="shared" si="0"/>
+        <f>V9+W9</f>
         <v>11</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="1"/>
+        <f>T9+U9</f>
         <v>10</v>
       </c>
       <c r="R9">
@@ -3284,11 +3283,11 @@
         <v>8</v>
       </c>
       <c r="P10">
-        <f t="shared" si="0"/>
+        <f>V10+W10</f>
         <v>15</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="1"/>
+        <f>T10+U10</f>
         <v>15</v>
       </c>
       <c r="R10">
@@ -3324,11 +3323,11 @@
         <v>10</v>
       </c>
       <c r="P11">
-        <f t="shared" si="0"/>
+        <f>V11+W11</f>
         <v>13</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="1"/>
+        <f>T11+U11</f>
         <v>10</v>
       </c>
       <c r="R11">
@@ -3358,11 +3357,11 @@
         <v>10</v>
       </c>
       <c r="P12">
-        <f t="shared" si="0"/>
+        <f>V12+W12</f>
         <v>17</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="1"/>
+        <f>T12+U12</f>
         <v>10</v>
       </c>
       <c r="R12">
@@ -3392,11 +3391,11 @@
         <v>15</v>
       </c>
       <c r="P13">
-        <f t="shared" si="0"/>
+        <f>V13+W13</f>
         <v>18</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="1"/>
+        <f>T13+U13</f>
         <v>15</v>
       </c>
       <c r="R13">
@@ -3426,11 +3425,11 @@
         <v>15</v>
       </c>
       <c r="P14">
-        <f t="shared" si="0"/>
+        <f>V14+W14</f>
         <v>20</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="1"/>
+        <f>T14+U14</f>
         <v>15</v>
       </c>
       <c r="R14">
@@ -3460,11 +3459,11 @@
         <v>20</v>
       </c>
       <c r="P15">
-        <f t="shared" si="0"/>
+        <f>V15+W15</f>
         <v>25</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="1"/>
+        <f>T15+U15</f>
         <v>25</v>
       </c>
       <c r="R15">
@@ -3494,11 +3493,11 @@
         <v>25</v>
       </c>
       <c r="P16">
-        <f t="shared" si="0"/>
+        <f>V16+W16</f>
         <v>28</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="1"/>
+        <f>T16+U16</f>
         <v>20</v>
       </c>
       <c r="R16">
@@ -3523,7 +3522,7 @@
     <row r="17" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O17">
         <f>SUM(O2:O16)</f>
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P17">
         <f>SUM(P2:P16)</f>
@@ -3535,11 +3534,11 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N2:W16">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N2:X16">
     <sortCondition ref="O2:O16"/>
   </sortState>
   <conditionalFormatting sqref="P2:Q16">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3549,7 +3548,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O16">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3564,10 +3563,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AFBDD1-7053-044C-A762-00CA2082A921}">
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3579,12 +3578,11 @@
     <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" customWidth="1"/>
-    <col min="10" max="21" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="27.1640625" customWidth="1"/>
+    <col min="9" max="20" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>145</v>
       </c>
@@ -3607,9 +3605,8 @@
         <v>172</v>
       </c>
       <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -3631,9 +3628,9 @@
       <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="S2" s="5"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -3656,7 +3653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>103</v>
       </c>
@@ -3679,7 +3676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>119</v>
       </c>
@@ -3702,7 +3699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>108</v>
       </c>
@@ -3725,7 +3722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>126</v>
       </c>
@@ -3748,7 +3745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>116</v>
       </c>
@@ -3771,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>129</v>
       </c>
@@ -3794,7 +3791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>144</v>
       </c>
@@ -3817,7 +3814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>112</v>
       </c>
@@ -3840,7 +3837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>123</v>
       </c>
@@ -3863,7 +3860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>102</v>
       </c>
@@ -3886,7 +3883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>118</v>
       </c>
@@ -3909,7 +3906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>107</v>
       </c>
@@ -3932,7 +3929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>125</v>
       </c>
@@ -4669,23 +4666,23 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>89</v>
+      <c r="A48" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D48" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E48" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F48" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G48" s="4">
         <v>4</v>
@@ -4693,7 +4690,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B49" t="s">
         <v>97</v>
@@ -4715,8 +4712,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
-        <v>120</v>
+      <c r="A50" t="s">
+        <v>113</v>
       </c>
       <c r="B50" t="s">
         <v>97</v>
@@ -4734,24 +4731,24 @@
         <v>3</v>
       </c>
       <c r="G50" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="B51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D51" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E51" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F51" s="4">
         <v>3</v>
@@ -4762,25 +4759,25 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D52" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E52" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F52" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -4968,11 +4965,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G60" xr:uid="{B7AFBDD1-7053-044C-A762-00CA2082A921}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
-      <sortCondition ref="G1:G60"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:G60" xr:uid="{B7AFBDD1-7053-044C-A762-00CA2082A921}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/corpus/weights.xlsx
+++ b/corpus/weights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rabraham5/Documents/Github/keygen-ronalabraham/corpus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFCA1B1-C1EA-664C-80D3-9B5859DA454B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABE496B-757E-464A-859E-350CDEFB3EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="29300" windowWidth="33600" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9624" yWindow="3048" windowWidth="19908" windowHeight="15756" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base Penalty" sheetId="1" r:id="rId1"/>
@@ -589,7 +589,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -789,9 +789,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -829,7 +829,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -935,7 +935,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1077,7 +1077,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1087,22 +1087,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="21" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="2.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="4.69921875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="A1">
         <v>6</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1286,13 +1286,13 @@
       </c>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="M6" s="1">
         <f>SUM(L5:N5)</f>
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>9</v>
       </c>
@@ -1315,10 +1315,10 @@
         <v>3.5</v>
       </c>
       <c r="I8" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="J8" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K8" s="1">
         <v>1.5</v>
@@ -1333,10 +1333,10 @@
         <v>1.5</v>
       </c>
       <c r="P8" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R8" s="1">
         <v>3.5</v>
@@ -1345,7 +1345,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>9</v>
       </c>
       <c r="H9" s="1">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -1377,10 +1377,10 @@
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O9" s="1">
         <v>0</v>
@@ -1392,13 +1392,13 @@
         <v>0</v>
       </c>
       <c r="R9" s="1">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="S9" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1427,10 +1427,10 @@
         <v>1</v>
       </c>
       <c r="L10" s="1">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N10" s="1">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O10" s="1">
         <v>1</v>
@@ -1445,7 +1445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1476,27 +1476,15 @@
       </c>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="M13" s="1">
         <f>SUM(L12:N12)</f>
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:S4">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:S4">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="H1:L4">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1505,8 +1493,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:L4">
-    <cfRule type="colorScale" priority="18">
+  <conditionalFormatting sqref="H8:L10">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1535,6 +1523,38 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H1:S4">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:S10">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H8:S11">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -1555,8 +1575,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8:S10">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="N1:S4">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1565,28 +1585,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:L10">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8:S10">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="N8:S10">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1619,19 +1619,19 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="6" t="s">
         <v>69</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="B17">
         <f>SUM(B2:B16)</f>
         <v>190</v>
@@ -2141,58 +2141,58 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="4"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
         <v>20</v>
       </c>
@@ -2224,31 +2224,31 @@
       <selection activeCell="N5" sqref="N5:S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" customWidth="1"/>
-    <col min="7" max="7" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.296875" customWidth="1"/>
+    <col min="7" max="7" width="2.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="2.19921875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.5" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" customWidth="1"/>
-    <col min="15" max="15" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.796875" customWidth="1"/>
+    <col min="15" max="15" width="23.796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="N4" t="s">
         <v>84</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="N5" t="s">
         <v>76</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="N6" t="s">
         <v>88</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="N7" t="s">
         <v>89</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="N8" t="s">
         <v>90</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="N9" t="s">
         <v>78</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="N10" t="s">
         <v>75</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="N11" t="s">
         <v>79</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="N12" t="s">
         <v>81</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="N13" t="s">
         <v>80</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="N14" t="s">
         <v>91</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="N15" t="s">
         <v>74</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="N16" t="s">
         <v>82</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="14:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="14:20">
       <c r="S17">
         <f>SUM(S2:S16)</f>
         <v>85</v>
@@ -2800,17 +2800,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="14:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="14:20">
       <c r="N21" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="14:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="14:20">
       <c r="N22" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="14:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="14:20">
       <c r="N23" s="4" t="s">
         <v>86</v>
       </c>
@@ -2839,37 +2839,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4715C5BF-7BAB-314B-95FF-5EF7930FFEFC}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.5" customWidth="1"/>
-    <col min="7" max="7" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="2.19921875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="47.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.19921875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -2975,11 +2975,11 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <f>V2+W2</f>
+        <f t="shared" ref="P2:P16" si="0">V2+W2</f>
         <v>3</v>
       </c>
       <c r="Q2">
-        <f>T2+U2</f>
+        <f t="shared" ref="Q2:Q16" si="1">T2+U2</f>
         <v>10</v>
       </c>
       <c r="R2">
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -3039,11 +3039,11 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <f>V3+W3</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Q3">
-        <f>T3+U3</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="R3">
@@ -3065,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="N4" s="2" t="s">
         <v>161</v>
       </c>
@@ -3073,11 +3073,11 @@
         <v>1</v>
       </c>
       <c r="P4">
-        <f>V4+W4</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="Q4">
-        <f>T4+U4</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="R4">
@@ -3099,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="N5" s="2" t="s">
         <v>162</v>
       </c>
@@ -3107,11 +3107,11 @@
         <v>3</v>
       </c>
       <c r="P5">
-        <f>V5+W5</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="Q5">
-        <f>T5+U5</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="R5">
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25">
       <c r="N6" s="2" t="s">
         <v>2</v>
       </c>
@@ -3141,11 +3141,11 @@
         <v>3</v>
       </c>
       <c r="P6">
-        <f>V6+W6</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Q6">
-        <f>T6+U6</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="R6">
@@ -3170,7 +3170,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25">
       <c r="N7" s="2" t="s">
         <v>1</v>
       </c>
@@ -3178,11 +3178,11 @@
         <v>4</v>
       </c>
       <c r="P7">
-        <f>V7+W7</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="Q7">
-        <f>T7+U7</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="R7">
@@ -3207,7 +3207,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25">
       <c r="N8" s="3" t="s">
         <v>163</v>
       </c>
@@ -3215,11 +3215,11 @@
         <v>6</v>
       </c>
       <c r="P8">
-        <f>V8+W8</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="Q8">
-        <f>T8+U8</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="R8">
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25">
       <c r="N9" s="2" t="s">
         <v>164</v>
       </c>
@@ -3249,11 +3249,11 @@
         <v>7</v>
       </c>
       <c r="P9">
-        <f>V9+W9</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="Q9">
-        <f>T9+U9</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="R9">
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25">
       <c r="N10" s="3" t="s">
         <v>171</v>
       </c>
@@ -3283,11 +3283,11 @@
         <v>8</v>
       </c>
       <c r="P10">
-        <f>V10+W10</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="Q10">
-        <f>T10+U10</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="R10">
@@ -3315,7 +3315,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25">
       <c r="N11" s="2" t="s">
         <v>165</v>
       </c>
@@ -3323,11 +3323,11 @@
         <v>10</v>
       </c>
       <c r="P11">
-        <f>V11+W11</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="Q11">
-        <f>T11+U11</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="R11">
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25">
       <c r="N12" s="2" t="s">
         <v>166</v>
       </c>
@@ -3357,11 +3357,11 @@
         <v>10</v>
       </c>
       <c r="P12">
-        <f>V12+W12</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="Q12">
-        <f>T12+U12</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="R12">
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25">
       <c r="N13" s="2" t="s">
         <v>167</v>
       </c>
@@ -3391,11 +3391,11 @@
         <v>15</v>
       </c>
       <c r="P13">
-        <f>V13+W13</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="Q13">
-        <f>T13+U13</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="R13">
@@ -3417,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25">
       <c r="N14" s="2" t="s">
         <v>168</v>
       </c>
@@ -3425,11 +3425,11 @@
         <v>15</v>
       </c>
       <c r="P14">
-        <f>V14+W14</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="Q14">
-        <f>T14+U14</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="R14">
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25">
       <c r="N15" s="3" t="s">
         <v>169</v>
       </c>
@@ -3459,11 +3459,11 @@
         <v>20</v>
       </c>
       <c r="P15">
-        <f>V15+W15</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="Q15">
-        <f>T15+U15</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="R15">
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25">
       <c r="N16" s="3" t="s">
         <v>170</v>
       </c>
@@ -3493,11 +3493,11 @@
         <v>25</v>
       </c>
       <c r="P16">
-        <f>V16+W16</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="Q16">
-        <f>T16+U16</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="R16">
@@ -3519,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="15:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="15:17">
       <c r="O17">
         <f>SUM(O2:O16)</f>
         <v>127</v>
@@ -3537,8 +3537,8 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N2:X16">
     <sortCondition ref="O2:O16"/>
   </sortState>
-  <conditionalFormatting sqref="P2:Q16">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="O2:O16">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3547,8 +3547,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O16">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="P2:Q16">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3569,20 +3569,20 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.1640625" customWidth="1"/>
-    <col min="9" max="20" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="27.19921875" customWidth="1"/>
+    <col min="9" max="20" width="10.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" s="6" t="s">
         <v>145</v>
       </c>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4" s="7" t="s">
         <v>103</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5" s="7" t="s">
         <v>119</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6" s="10" t="s">
         <v>108</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7" s="10" t="s">
         <v>126</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" s="10" t="s">
         <v>116</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>129</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10" s="11" t="s">
         <v>144</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11" s="11" t="s">
         <v>112</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12" s="11" t="s">
         <v>123</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13" s="9" t="s">
         <v>102</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14" s="9" t="s">
         <v>118</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15" s="13" t="s">
         <v>107</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16" s="13" t="s">
         <v>125</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="13" t="s">
         <v>115</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="12" t="s">
         <v>142</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="12" t="s">
         <v>148</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>143</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="14" t="s">
         <v>101</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="14" t="s">
         <v>117</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="9" t="s">
         <v>106</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="9" t="s">
         <v>124</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="9" t="s">
         <v>114</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="16" t="s">
         <v>135</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="16" t="s">
         <v>137</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>140</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>153</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="13" t="s">
         <v>122</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="13" t="s">
         <v>111</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="11" t="s">
         <v>141</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="11" t="s">
         <v>155</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="17" t="s">
         <v>152</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="17" t="s">
         <v>132</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="10" t="s">
         <v>88</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="10" t="s">
         <v>90</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="8" t="s">
         <v>149</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="8" t="s">
         <v>127</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>109</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="14" t="s">
         <v>110</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="14" t="s">
         <v>121</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>76</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="7" t="s">
         <v>105</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="7" t="s">
         <v>120</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>113</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>81</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>80</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>99</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>130</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>100</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>134</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>136</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>131</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>75</v>
       </c>
